--- a/xlsx/国际志愿者日_intext.xlsx
+++ b/xlsx/国际志愿者日_intext.xlsx
@@ -29,7 +29,7 @@
     <t>12月5日</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_国际志愿者日</t>
+    <t>政策_政策_维基百科_国际志愿者日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
 </sst>
 </file>
